--- a/Mifos Automation Excels/Client/4027-CREATE-ACTIVECLIENT-REJECTCLIENT-WITHOUT-REASON.xlsx
+++ b/Mifos Automation Excels/Client/4027-CREATE-ACTIVECLIENT-REJECTCLIENT-WITHOUT-REASON.xlsx
@@ -95,10 +95,10 @@
     <t>RejectClient</t>
   </si>
   <si>
-    <t>validation.msg.client.rejectionDate.cannot.be.blank</t>
-  </si>
-  <si>
     <t>verify1</t>
+  </si>
+  <si>
+    <t>Client Rejection Date cannot be blank</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,10 +623,10 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
